--- a/data/trans_orig/Q5416-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Clase-trans_orig.xlsx
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6415</v>
+        <v>6422</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04287623457384587</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2159357098431097</v>
+        <v>0.2161494972424858</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6610</v>
+        <v>5454</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01423346250214664</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07386470169798112</v>
+        <v>0.06094071572926273</v>
       </c>
     </row>
     <row r="7">
@@ -914,7 +914,7 @@
         <v>28435</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23294</v>
+        <v>23287</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>29709</v>
@@ -923,7 +923,7 @@
         <v>0.9571237654261542</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7840642901568903</v>
+        <v>0.7838505027575148</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>88219</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82883</v>
+        <v>84039</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>89493</v>
@@ -944,7 +944,7 @@
         <v>0.9857665374978534</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9261352983020188</v>
+        <v>0.9390592842707364</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6438</v>
+        <v>7451</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08968519409703525</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2651921117459367</v>
+        <v>0.3069294863065523</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7070</v>
+        <v>7271</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02267153532140515</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07362368757079657</v>
+        <v>0.07571657039301362</v>
       </c>
     </row>
     <row r="15">
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5273</v>
+        <v>5595</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02337664441750191</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0734808261529883</v>
+        <v>0.07797156451941829</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6595</v>
+        <v>5908</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01746725853788944</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06867397941953565</v>
+        <v>0.06151944292194936</v>
       </c>
     </row>
     <row r="16">
@@ -1475,7 +1475,7 @@
         <v>70077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66481</v>
+        <v>66159</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>71754</v>
@@ -1484,7 +1484,7 @@
         <v>0.9766233555824981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9265191738470118</v>
+        <v>0.9220284354805813</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>22098</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17837</v>
+        <v>16824</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>24275</v>
@@ -1505,7 +1505,7 @@
         <v>0.9103148059029648</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7348078882540632</v>
+        <v>0.6930705136934472</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1517,19 +1517,19 @@
         <v>92175</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86644</v>
+        <v>86570</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>94978</v>
+        <v>95013</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9598612061407054</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9022628731594016</v>
+        <v>0.9014915883038939</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9890456000166131</v>
+        <v>0.9894100775968088</v>
       </c>
     </row>
     <row r="18">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6791</v>
+        <v>6478</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007283881114245448</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02611242328650385</v>
+        <v>0.02490870850679913</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6700</v>
+        <v>6507</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005477737509105545</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01937541721147221</v>
+        <v>0.01881521683230243</v>
       </c>
     </row>
     <row r="20">
@@ -1684,19 +1684,19 @@
         <v>6674</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2839</v>
+        <v>2817</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12461</v>
+        <v>13303</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02566281620190028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01091665674660115</v>
+        <v>0.01083037227406232</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04791523890758912</v>
+        <v>0.05115106871942117</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5286</v>
+        <v>4828</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009911965514455712</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06164648667200332</v>
+        <v>0.05630683428794772</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -1726,19 +1726,19 @@
         <v>7524</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2894</v>
+        <v>3546</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13798</v>
+        <v>13891</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02175716510759512</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00836702091574424</v>
+        <v>0.01025421991485706</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03989930719772283</v>
+        <v>0.04016740348090403</v>
       </c>
     </row>
     <row r="21">
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3992</v>
+        <v>4398</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.003337783805145023</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01534792012481488</v>
+        <v>0.01691154215569895</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7220</v>
+        <v>6684</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02581453697037855</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08419335275782039</v>
+        <v>0.07794940899232462</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1797,19 +1797,19 @@
         <v>3082</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9605</v>
+        <v>7849</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00891121963653147</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002517058647913511</v>
+        <v>0.00249956112680714</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02777362537948387</v>
+        <v>0.02269733658357477</v>
       </c>
     </row>
     <row r="22">
@@ -1826,19 +1826,19 @@
         <v>250635</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>243596</v>
+        <v>243095</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>255380</v>
+        <v>255425</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9637155188787092</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9366474891622666</v>
+        <v>0.9347205879104795</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.981957476562496</v>
+        <v>0.9821325854838819</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -1847,19 +1847,19 @@
         <v>82688</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>77919</v>
+        <v>78260</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85517</v>
+        <v>84911</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9642734975151658</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9086574026027693</v>
+        <v>0.9126318805953144</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9972645338560379</v>
+        <v>0.9901982450524711</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>352</v>
@@ -1868,19 +1868,19 @@
         <v>333324</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>325132</v>
+        <v>325309</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>339139</v>
+        <v>339036</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9638538777467679</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9401649450658719</v>
+        <v>0.9406772680476798</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9806680316953218</v>
+        <v>0.9803707775085693</v>
       </c>
     </row>
     <row r="23">
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4231</v>
+        <v>4611</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0149760885067738</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07629016737330291</v>
+        <v>0.08314163113503428</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -1996,16 +1996,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8178</v>
+        <v>8943</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02411796744776273</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>5.845177422920487e-07</v>
+        <v>1.164540266500351e-06</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08497134862038576</v>
+        <v>0.0929173237227356</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -2014,19 +2014,19 @@
         <v>3152</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8481</v>
+        <v>9083</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02077580151296371</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005357055353158416</v>
+        <v>0.005519193106401699</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05590342061373164</v>
+        <v>0.05987203173088452</v>
       </c>
     </row>
     <row r="25">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6868</v>
+        <v>6024</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03549157530970292</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1238220013694684</v>
+        <v>0.1086043625508606</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2064,19 +2064,19 @@
         <v>3590</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1065</v>
+        <v>1088</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9392</v>
+        <v>10341</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03730363687559831</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01106419451521525</v>
+        <v>0.01129886814852155</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09757825410296829</v>
+        <v>0.1074381677474967</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2085,19 +2085,19 @@
         <v>5559</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1977</v>
+        <v>2045</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12971</v>
+        <v>12357</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03664116798092281</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01303102291497647</v>
+        <v>0.01347755396533033</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08549806204542228</v>
+        <v>0.08144776461136541</v>
       </c>
     </row>
     <row r="26">
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7259</v>
+        <v>7292</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02135854878688655</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07541417554523569</v>
+        <v>0.0757561743470645</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7023</v>
+        <v>6369</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01355010868031113</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04628956039709978</v>
+        <v>0.04197884198598183</v>
       </c>
     </row>
     <row r="27">
@@ -2177,7 +2177,7 @@
         <v>52666</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>47104</v>
+        <v>48136</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>54640</v>
@@ -2186,10 +2186,10 @@
         <v>0.9495323361835233</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.849253275919812</v>
+        <v>0.8678694061239057</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9851344432054679</v>
+        <v>0.9851306260588769</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>84</v>
@@ -2198,19 +2198,19 @@
         <v>88282</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>80769</v>
+        <v>81275</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>92896</v>
+        <v>92887</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9172198468897524</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8391633712979815</v>
+        <v>0.8444204466132856</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9651576783769024</v>
+        <v>0.9650601061861175</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>140</v>
@@ -2219,19 +2219,19 @@
         <v>140948</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>133040</v>
+        <v>133916</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>146713</v>
+        <v>146612</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9290329218258023</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8769082055084866</v>
+        <v>0.8826838812309474</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.967030464804738</v>
+        <v>0.966365851187549</v>
       </c>
     </row>
     <row r="28">
@@ -2336,19 +2336,19 @@
         <v>5016</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10868</v>
+        <v>11426</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01180105278060238</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004210877884059129</v>
+        <v>0.004219976006962081</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0255681712406946</v>
+        <v>0.02688052813308024</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2357,19 +2357,19 @@
         <v>5016</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11052</v>
+        <v>11061</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01170071876667551</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004183500580158325</v>
+        <v>0.004164124788348733</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02578006182070268</v>
+        <v>0.02580076754791872</v>
       </c>
     </row>
     <row r="30">
@@ -2399,19 +2399,19 @@
         <v>16549</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9148</v>
+        <v>9231</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>26270</v>
+        <v>25795</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03893285337379676</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02152031290393461</v>
+        <v>0.02171698931983173</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06180147847034435</v>
+        <v>0.0606832320337686</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>15</v>
@@ -2420,19 +2420,19 @@
         <v>16549</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>9350</v>
+        <v>9754</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>26127</v>
+        <v>26604</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03860184142721515</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02181000642243526</v>
+        <v>0.02275147327966639</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0609416261147663</v>
+        <v>0.06205556635959522</v>
       </c>
     </row>
     <row r="31">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5853</v>
+        <v>4706</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002745845311638678</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01376901364732887</v>
+        <v>0.01107162032408037</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6470</v>
+        <v>5745</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.002722499794347895</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01509104186071702</v>
+        <v>0.0134009562927308</v>
       </c>
     </row>
     <row r="32">
@@ -2525,19 +2525,19 @@
         <v>402337</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>392481</v>
+        <v>391777</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>411087</v>
+        <v>410959</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9465202485339622</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.92333379448429</v>
+        <v>0.9216774776571661</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.967104588036042</v>
+        <v>0.9668032981950738</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>395</v>
@@ -2546,19 +2546,19 @@
         <v>405982</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>394448</v>
+        <v>395061</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>413853</v>
+        <v>414320</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9469749400117614</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9200693938669634</v>
+        <v>0.9215013689865509</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.965334474970338</v>
+        <v>0.966423067736961</v>
       </c>
     </row>
     <row r="33">
@@ -2650,19 +2650,19 @@
         <v>2725</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7845</v>
+        <v>7755</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.005433126337042461</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001642611091403963</v>
+        <v>0.001658995612437029</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01564153554151788</v>
+        <v>0.01546262745183673</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -2671,19 +2671,19 @@
         <v>9515</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4425</v>
+        <v>4224</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>17438</v>
+        <v>16618</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01405759086535388</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006538435118944621</v>
+        <v>0.006241288444503116</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02576449668488715</v>
+        <v>0.02455176402357711</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>13</v>
@@ -2692,19 +2692,19 @@
         <v>12240</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6716</v>
+        <v>6828</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>20303</v>
+        <v>20540</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01038682198195526</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005699662736288954</v>
+        <v>0.005794401550619928</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01722967559443817</v>
+        <v>0.01743053148599813</v>
       </c>
     </row>
     <row r="35">
@@ -2721,19 +2721,19 @@
         <v>10320</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5565</v>
+        <v>5561</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17968</v>
+        <v>17720</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02057639627044757</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01109620839743886</v>
+        <v>0.01108833494059441</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03582419440110788</v>
+        <v>0.03533129247473677</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>19</v>
@@ -2742,19 +2742,19 @@
         <v>20990</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>13127</v>
+        <v>13389</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>32618</v>
+        <v>32500</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03101114599009216</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01939510101666653</v>
+        <v>0.01978140652046007</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0481912750018444</v>
+        <v>0.04801679622474531</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>30</v>
@@ -2763,19 +2763,19 @@
         <v>31310</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>22063</v>
+        <v>20872</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>44636</v>
+        <v>43528</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02656987842487866</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01872286430755394</v>
+        <v>0.01771232252699284</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03787879785044951</v>
+        <v>0.03693805239075543</v>
       </c>
     </row>
     <row r="36">
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4998</v>
+        <v>3512</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001730760415583494</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.009964637787455367</v>
+        <v>0.007002819222535079</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -2813,19 +2813,19 @@
         <v>6710</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2307</v>
+        <v>2275</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13384</v>
+        <v>13626</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.009914246668302398</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003407992724502157</v>
+        <v>0.003361791174098084</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01977441123014037</v>
+        <v>0.02013212813409061</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -2834,19 +2834,19 @@
         <v>7578</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3303</v>
+        <v>3586</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>16141</v>
+        <v>15337</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006431168200579555</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002803234592976138</v>
+        <v>0.00304334250048844</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01369742613044261</v>
+        <v>0.01301492656247578</v>
       </c>
     </row>
     <row r="37">
@@ -2863,19 +2863,19 @@
         <v>487638</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>478881</v>
+        <v>479813</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>493141</v>
+        <v>493247</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9722597169769265</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9548008493970688</v>
+        <v>0.9566579597271643</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9832324944341855</v>
+        <v>0.9834431171391805</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>626</v>
@@ -2884,19 +2884,19 @@
         <v>639627</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>625608</v>
+        <v>626168</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>650796</v>
+        <v>649874</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9450170164762516</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9243041228355874</v>
+        <v>0.9251315332595478</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9615186121712269</v>
+        <v>0.9601557178157208</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1133</v>
@@ -2905,19 +2905,19 @@
         <v>1127265</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1112217</v>
+        <v>1112555</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1140055</v>
+        <v>1139878</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9566121313925865</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9438424011587168</v>
+        <v>0.9441285791657034</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9674659981781216</v>
+        <v>0.9673158842159033</v>
       </c>
     </row>
     <row r="38">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5286</v>
+        <v>5450</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04162510573438099</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2090224833033834</v>
+        <v>0.2154903593768627</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6429</v>
+        <v>4472</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01521036651651214</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09289463858701259</v>
+        <v>0.06461914622583771</v>
       </c>
     </row>
     <row r="6">
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5525</v>
+        <v>5633</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01588815857440026</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07982791609029452</v>
+        <v>0.08139619031978526</v>
       </c>
     </row>
     <row r="7">
@@ -3437,7 +3437,7 @@
         <v>23137</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18362</v>
+        <v>18538</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>25289</v>
@@ -3446,7 +3446,7 @@
         <v>0.9148949242158457</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.726084443509182</v>
+        <v>0.7330407777135534</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -3458,7 +3458,7 @@
         <v>67055</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62552</v>
+        <v>62386</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>69207</v>
@@ -3467,7 +3467,7 @@
         <v>0.9689014749090876</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9038330462145285</v>
+        <v>0.9014348688454232</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6912</v>
+        <v>6824</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1168536038681506</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3656640088822416</v>
+        <v>0.3610171330181494</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7706</v>
+        <v>6707</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0277716676373093</v>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09689910226785838</v>
+        <v>0.08433536819163073</v>
       </c>
     </row>
     <row r="10">
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7181</v>
+        <v>7220</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03733191266226404</v>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1184468724486513</v>
+        <v>0.1190886557308637</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5234</v>
+        <v>5299</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05888893275096339</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2768808383322872</v>
+        <v>0.2803617107668089</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -3667,19 +3667,19 @@
         <v>3377</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9643</v>
+        <v>9652</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04245519835766853</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01360030173791064</v>
+        <v>0.01334004046497645</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1212502154377994</v>
+        <v>0.1213635741235545</v>
       </c>
     </row>
     <row r="11">
@@ -3743,7 +3743,7 @@
         <v>58367</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53449</v>
+        <v>53410</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>60630</v>
@@ -3752,7 +3752,7 @@
         <v>0.9626680873377359</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8815531275513478</v>
+        <v>0.8809113442691393</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -3764,19 +3764,19 @@
         <v>15580</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10904</v>
+        <v>10884</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17873</v>
+        <v>17896</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.824257463380886</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5768590131211264</v>
+        <v>0.5758225847829701</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9455641128221436</v>
+        <v>0.9467870096520208</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>63</v>
@@ -3785,19 +3785,19 @@
         <v>73946</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67285</v>
+        <v>68068</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>77354</v>
+        <v>77450</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9297731340050222</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.846020525759448</v>
+        <v>0.8558622212402403</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9726275347916423</v>
+        <v>0.9738367482691542</v>
       </c>
     </row>
     <row r="13">
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7390</v>
+        <v>7781</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01755143386093154</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06228296875128216</v>
+        <v>0.06557997800993109</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6296</v>
+        <v>5391</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01944526622270082</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1152719134683821</v>
+        <v>0.09871729709305806</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -3978,19 +3978,19 @@
         <v>3145</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8513</v>
+        <v>8261</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01814837475831252</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.005645101423473236</v>
+        <v>0.005597377906937576</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0491319229621079</v>
+        <v>0.04768045887711284</v>
       </c>
     </row>
     <row r="16">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4726</v>
+        <v>5072</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00830642136008743</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03982971373253844</v>
+        <v>0.04274673516178863</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5020</v>
+        <v>5790</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005688215693730143</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02897092513635957</v>
+        <v>0.0334181282981572</v>
       </c>
     </row>
     <row r="17">
@@ -4070,19 +4070,19 @@
         <v>115585</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109764</v>
+        <v>109789</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117677</v>
+        <v>117689</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.974142144778981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9250863488038666</v>
+        <v>0.9252965129600378</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9917725219613045</v>
+        <v>0.9918760615176521</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -4091,7 +4091,7 @@
         <v>53553</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48319</v>
+        <v>49224</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>54615</v>
@@ -4100,7 +4100,7 @@
         <v>0.9805547337772992</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8847280865316179</v>
+        <v>0.9012827029069418</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -4112,19 +4112,19 @@
         <v>169138</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>163768</v>
+        <v>163733</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>172200</v>
+        <v>172216</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9761634095479573</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9451705998447844</v>
+        <v>0.9449684112134745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9938387554050937</v>
+        <v>0.9939282273459533</v>
       </c>
     </row>
     <row r="18">
@@ -4216,19 +4216,19 @@
         <v>7408</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3362</v>
+        <v>3388</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14733</v>
+        <v>14021</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.031964853061034</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01450851981650323</v>
+        <v>0.0146205689115472</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06357021903849121</v>
+        <v>0.06049974384363981</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4751</v>
+        <v>3855</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0157276919127363</v>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07906339061039229</v>
+        <v>0.0641415797287197</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -4258,19 +4258,19 @@
         <v>8353</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4011</v>
+        <v>3943</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17512</v>
+        <v>15467</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02862141551271484</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01374405333678232</v>
+        <v>0.01351066170665783</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06000513074467174</v>
+        <v>0.05299626082132607</v>
       </c>
     </row>
     <row r="20">
@@ -4287,19 +4287,19 @@
         <v>6381</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2153</v>
+        <v>2185</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12803</v>
+        <v>12871</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02753444552072905</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00929108827161354</v>
+        <v>0.00942914582494783</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05524504610983406</v>
+        <v>0.05553940476537791</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4109</v>
+        <v>5044</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01640114480715393</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06837105515965627</v>
+        <v>0.08392889185466204</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -4329,19 +4329,19 @@
         <v>7367</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3129</v>
+        <v>3023</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14675</v>
+        <v>13640</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02524195760966351</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01072289309656512</v>
+        <v>0.01035674164772163</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05028458998157148</v>
+        <v>0.04673684186975156</v>
       </c>
     </row>
     <row r="21">
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13431</v>
+        <v>11096</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.009789501672162328</v>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05795319336936412</v>
+        <v>0.04787719224476782</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10614</v>
+        <v>13386</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007773719038048841</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0363672094685462</v>
+        <v>0.04586705250252652</v>
       </c>
     </row>
     <row r="22">
@@ -4421,19 +4421,19 @@
         <v>215695</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>205039</v>
+        <v>206105</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>223001</v>
+        <v>221905</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9307111997460746</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.884732476501949</v>
+        <v>0.8893283184070855</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9622342868199905</v>
+        <v>0.9575078650774951</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>55</v>
@@ -4442,7 +4442,7 @@
         <v>58164</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53951</v>
+        <v>54182</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>60095</v>
@@ -4451,7 +4451,7 @@
         <v>0.9678711632801098</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8977638383421764</v>
+        <v>0.9015985858507407</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -4463,19 +4463,19 @@
         <v>273859</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>263636</v>
+        <v>263358</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>281478</v>
+        <v>281240</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9383629078395728</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9033319634403844</v>
+        <v>0.902380203247608</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9644671914721255</v>
+        <v>0.9636513680294323</v>
       </c>
     </row>
     <row r="23">
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7027</v>
+        <v>6354</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0197667911048966</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0684242824143983</v>
+        <v>0.06187103581610835</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -4588,19 +4588,19 @@
         <v>8901</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4259</v>
+        <v>4272</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17338</v>
+        <v>16877</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04724264080486396</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02260759887652646</v>
+        <v>0.02267515495361176</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09202742180544952</v>
+        <v>0.08957813237736482</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -4609,19 +4609,19 @@
         <v>10930</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6357</v>
+        <v>5031</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20472</v>
+        <v>18857</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03754944021488132</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02183707601119916</v>
+        <v>0.01728447161288424</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07032626382695008</v>
+        <v>0.06477809931631061</v>
       </c>
     </row>
     <row r="25">
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4396</v>
+        <v>5063</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01000230407531869</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04280330151392419</v>
+        <v>0.04929760249622137</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -4659,19 +4659,19 @@
         <v>18113</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10871</v>
+        <v>11657</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28520</v>
+        <v>27611</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09614286044063879</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05770391936310918</v>
+        <v>0.06187584069822787</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1513789712559828</v>
+        <v>0.1465543298038909</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -4680,19 +4680,19 @@
         <v>19141</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11865</v>
+        <v>11934</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29775</v>
+        <v>29193</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06575334743559622</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04076066819296287</v>
+        <v>0.04099833258423061</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1022873437536932</v>
+        <v>0.1002852870114954</v>
       </c>
     </row>
     <row r="26">
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5564</v>
+        <v>5171</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01071682916710638</v>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05417603647352139</v>
+        <v>0.05035372889268006</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6355</v>
+        <v>5522</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003780788435651622</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02183221503367102</v>
+        <v>0.01897017074952453</v>
       </c>
     </row>
     <row r="27">
@@ -4772,19 +4772,19 @@
         <v>98538</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>92292</v>
+        <v>93116</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>101663</v>
+        <v>101664</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9595140756526783</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8986881967521775</v>
+        <v>0.9067104527195471</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9899453083664781</v>
+        <v>0.9899460751830721</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>152</v>
@@ -4793,19 +4793,19 @@
         <v>161386</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>149969</v>
+        <v>149898</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>169784</v>
+        <v>169678</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8566144987544972</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7960124598322446</v>
+        <v>0.7956363733242423</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9011901653756352</v>
+        <v>0.9006270125904866</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>244</v>
@@ -4814,19 +4814,19 @@
         <v>259924</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>248040</v>
+        <v>248999</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>269780</v>
+        <v>269566</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8929164239138708</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.852090883192869</v>
+        <v>0.855383657734568</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9267740342671325</v>
+        <v>0.9260376978175022</v>
       </c>
     </row>
     <row r="28">
@@ -4931,19 +4931,19 @@
         <v>15095</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8369</v>
+        <v>7496</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>25641</v>
+        <v>24698</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0382438691793807</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02120275717630186</v>
+        <v>0.01899203859077903</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06496152890112691</v>
+        <v>0.06257237297053492</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -4952,19 +4952,19 @@
         <v>15095</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8367</v>
+        <v>8562</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24527</v>
+        <v>25667</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03805223870187564</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02109117201347349</v>
+        <v>0.02158465481650892</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06182804562461931</v>
+        <v>0.06470155225653866</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>12716</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7162</v>
+        <v>6505</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20450</v>
+        <v>20475</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03221612731955051</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01814468756385768</v>
+        <v>0.01648015781124308</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05181071385770086</v>
+        <v>0.05187337842200558</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -5015,19 +5015,19 @@
         <v>12716</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7412</v>
+        <v>6336</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21716</v>
+        <v>20941</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.032054700351148</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01868478806261006</v>
+        <v>0.01597148793395352</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05474196063247277</v>
+        <v>0.05278938906307677</v>
       </c>
     </row>
     <row r="31">
@@ -5057,19 +5057,19 @@
         <v>3334</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8905</v>
+        <v>9221</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.00844783978983119</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002690933213187173</v>
+        <v>0.002715346521407892</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02256204523087716</v>
+        <v>0.02336193793941651</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -5078,19 +5078,19 @@
         <v>3334</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1069</v>
+        <v>146</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8865</v>
+        <v>8846</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.008405509774392157</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002693529142193979</v>
+        <v>0.0003684855313830492</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02234701747768339</v>
+        <v>0.02230011021926456</v>
       </c>
     </row>
     <row r="32">
@@ -5120,19 +5120,19 @@
         <v>363559</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>351230</v>
+        <v>351644</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>373406</v>
+        <v>373556</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9210921637112376</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8898562241088787</v>
+        <v>0.8909050260026824</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9460411329684898</v>
+        <v>0.9464211727982441</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>342</v>
@@ -5141,19 +5141,19 @@
         <v>365547</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>353330</v>
+        <v>353560</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>375458</v>
+        <v>375878</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9214875511725842</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8906910313136793</v>
+        <v>0.8912702659398142</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9464726399915377</v>
+        <v>0.9475303669419044</v>
       </c>
     </row>
     <row r="33">
@@ -5245,19 +5245,19 @@
         <v>9438</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4164</v>
+        <v>4246</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>16958</v>
+        <v>16783</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01686434591151883</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007440668696890777</v>
+        <v>0.007586826872500979</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03030255896771269</v>
+        <v>0.0299885743079904</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>24</v>
@@ -5266,19 +5266,19 @@
         <v>27149</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>18600</v>
+        <v>18453</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>40674</v>
+        <v>39631</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03658927245856484</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02506782115104897</v>
+        <v>0.02486927048418329</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05481651898499326</v>
+        <v>0.05341115937240392</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>33</v>
@@ -5287,19 +5287,19 @@
         <v>36587</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>25969</v>
+        <v>25577</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>51063</v>
+        <v>49974</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02810860013134841</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01995089922675194</v>
+        <v>0.01964990505503367</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03922940117227714</v>
+        <v>0.03839304766229116</v>
       </c>
     </row>
     <row r="35">
@@ -5316,19 +5316,19 @@
         <v>11754</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6271</v>
+        <v>6177</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>20335</v>
+        <v>20907</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.021003505972266</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.011205574473993</v>
+        <v>0.0110377207871944</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03633655674823139</v>
+        <v>0.03735811367514637</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>33</v>
@@ -5337,19 +5337,19 @@
         <v>35043</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>24759</v>
+        <v>24682</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>48391</v>
+        <v>47462</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04722685728287334</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03336832420347909</v>
+        <v>0.03326393655070286</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06521590332246521</v>
+        <v>0.0639639247461303</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>44</v>
@@ -5358,19 +5358,19 @@
         <v>46797</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>34809</v>
+        <v>35132</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>61230</v>
+        <v>63061</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03595220694355192</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02674239893187882</v>
+        <v>0.02699088364734895</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04704073126936389</v>
+        <v>0.04844720576944486</v>
       </c>
     </row>
     <row r="36">
@@ -5387,19 +5387,19 @@
         <v>4355</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12864</v>
+        <v>12403</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.00778165683923973</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.001767437477742475</v>
+        <v>0.001780695665416695</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02298559051079924</v>
+        <v>0.02216225037875066</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -5408,19 +5408,19 @@
         <v>4434</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1114</v>
+        <v>1150</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10075</v>
+        <v>9960</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005975654636397297</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.001501701273234328</v>
+        <v>0.001549218935303257</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01357843725166723</v>
+        <v>0.01342337527946274</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -5429,19 +5429,19 @@
         <v>8789</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3413</v>
+        <v>3245</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>17654</v>
+        <v>17472</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006752139804441255</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002621966099651417</v>
+        <v>0.002493183533736126</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01356273538880517</v>
+        <v>0.01342302681425624</v>
       </c>
     </row>
     <row r="37">
@@ -5458,19 +5458,19 @@
         <v>534090</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>521929</v>
+        <v>521963</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>542617</v>
+        <v>543602</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9543504912769755</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9326208634615605</v>
+        <v>0.9326813853553052</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.969588069844619</v>
+        <v>0.9713475713270376</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>632</v>
@@ -5479,19 +5479,19 @@
         <v>675379</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>657693</v>
+        <v>658469</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>690577</v>
+        <v>690705</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9102082156221645</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8863721046434005</v>
+        <v>0.8874182857793516</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9306911261286602</v>
+        <v>0.9308626707581156</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1113</v>
@@ -5500,19 +5500,19 @@
         <v>1209469</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1186428</v>
+        <v>1189209</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1225672</v>
+        <v>1226701</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9291870531206584</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.911485461116857</v>
+        <v>0.9136225238689584</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9416354246495445</v>
+        <v>0.9424257329185997</v>
       </c>
     </row>
     <row r="38">
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7078</v>
+        <v>7584</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02290312290990164</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1031144143232646</v>
+        <v>0.110478651515021</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6966</v>
+        <v>6476</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03729599306543466</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1888309395310173</v>
+        <v>0.1755555548761533</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10696</v>
+        <v>10199</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02793393856037155</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1013510110407438</v>
+        <v>0.09664560434800373</v>
       </c>
     </row>
     <row r="6">
@@ -6011,7 +6011,7 @@
         <v>67075</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61569</v>
+        <v>61063</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>68647</v>
@@ -6020,7 +6020,7 @@
         <v>0.9770968770900984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.896885585676736</v>
+        <v>0.889521348484979</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -6032,7 +6032,7 @@
         <v>35512</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29922</v>
+        <v>30412</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>36888</v>
@@ -6041,7 +6041,7 @@
         <v>0.9627040069345654</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8111690604689827</v>
+        <v>0.8244444451238445</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -6053,7 +6053,7 @@
         <v>102587</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94839</v>
+        <v>95336</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>105535</v>
@@ -6062,7 +6062,7 @@
         <v>0.9720660614396285</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8986489889592556</v>
+        <v>0.9033543956519968</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6710</v>
+        <v>5584</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03581436167320109</v>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1257924451546353</v>
+        <v>0.1046712719285222</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5772</v>
+        <v>7328</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02693391307936231</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08137934405357722</v>
+        <v>0.103307731073842</v>
       </c>
     </row>
     <row r="10">
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6136</v>
+        <v>6233</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03831322704568111</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1150201431181757</v>
+        <v>0.1168407729848532</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6471</v>
+        <v>6645</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02881316541264533</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09122607633503077</v>
+        <v>0.09368271505543381</v>
       </c>
     </row>
     <row r="11">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3676</v>
+        <v>3702</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01683006917398573</v>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06890208558943202</v>
+        <v>0.06940234186722014</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>3974</v>
+        <v>5144</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0126569230631012</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05603165828537181</v>
+        <v>0.0725171272837271</v>
       </c>
     </row>
     <row r="12">
@@ -6346,19 +6346,19 @@
         <v>48492</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43399</v>
+        <v>43539</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51474</v>
+        <v>51432</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9090423421071321</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8135692746319173</v>
+        <v>0.8161863222867479</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9649446953696232</v>
+        <v>0.9641588946181407</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -6380,7 +6380,7 @@
         <v>66080</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>60762</v>
+        <v>60495</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>69064</v>
@@ -6389,10 +6389,10 @@
         <v>0.9315959984448912</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8566240232529142</v>
+        <v>0.8528538529018527</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9736646359196193</v>
+        <v>0.973664153805898</v>
       </c>
     </row>
     <row r="13">
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4527</v>
+        <v>4662</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007419590169216484</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03764191152886145</v>
+        <v>0.03876771360308678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4491</v>
+        <v>5395</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005360054184697013</v>
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02697575131453833</v>
+        <v>0.03240692223119501</v>
       </c>
     </row>
     <row r="15">
@@ -6547,19 +6547,19 @@
         <v>2827</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7735</v>
+        <v>7681</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02350685739515541</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.00647159517603932</v>
+        <v>0.006473820907869104</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.064318487465158</v>
+        <v>0.06387210308546136</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -6581,19 +6581,19 @@
         <v>2827</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8029</v>
+        <v>7376</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01698180444962288</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.004658473744277671</v>
+        <v>0.004675633173131757</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04822925808987033</v>
+        <v>0.04430634039649757</v>
       </c>
     </row>
     <row r="16">
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5338</v>
+        <v>5559</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02569218546758745</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1155133001809109</v>
+        <v>0.1202940425301047</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5939</v>
+        <v>6059</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00713165812189763</v>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03567499738838755</v>
+        <v>0.03639651548816037</v>
       </c>
     </row>
     <row r="17">
@@ -6673,19 +6673,19 @@
         <v>116542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>111097</v>
+        <v>110911</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119032</v>
+        <v>119376</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9690735524356281</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9237978808186325</v>
+        <v>0.9222554356875193</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9897799211210039</v>
+        <v>0.992637616866009</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>36</v>
@@ -6694,7 +6694,7 @@
         <v>45022</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40871</v>
+        <v>40650</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>46209</v>
@@ -6703,7 +6703,7 @@
         <v>0.9743078145324126</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8844866998190876</v>
+        <v>0.8797059574698952</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -6715,19 +6715,19 @@
         <v>161564</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>155963</v>
+        <v>156173</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>164796</v>
+        <v>164809</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9705264832437824</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9368820054771236</v>
+        <v>0.9381464916894587</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9899436456960553</v>
+        <v>0.9900227231088276</v>
       </c>
     </row>
     <row r="18">
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4647</v>
+        <v>4073</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003986945738227496</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02279531708987033</v>
+        <v>0.01997779302281758</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6421</v>
+        <v>6665</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01283316368405981</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06483073481849221</v>
+        <v>0.06729423657798915</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6715</v>
+        <v>6956</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006879574851246012</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02217044758701044</v>
+        <v>0.02296491326874242</v>
       </c>
     </row>
     <row r="20">
@@ -6890,19 +6890,19 @@
         <v>8265</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4143</v>
+        <v>4097</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14329</v>
+        <v>14775</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04054116985905439</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02032537858444782</v>
+        <v>0.02009864704634482</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07029182055208386</v>
+        <v>0.07247763137585121</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -6911,19 +6911,19 @@
         <v>6730</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2382</v>
+        <v>2711</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14039</v>
+        <v>14063</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0679496057785548</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0240458645929332</v>
+        <v>0.02737236064328057</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1417390347260847</v>
+        <v>0.1419802909535097</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -6932,19 +6932,19 @@
         <v>14995</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9153</v>
+        <v>8698</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24737</v>
+        <v>24846</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0495034676645704</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03021678543854691</v>
+        <v>0.02871485765985333</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0816672313292397</v>
+        <v>0.08202753497075076</v>
       </c>
     </row>
     <row r="21">
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4397</v>
+        <v>4376</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004143389624985613</v>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02156764700546373</v>
+        <v>0.0214641632563785</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4648</v>
+        <v>4204</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.002788540634241626</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01534491745079867</v>
+        <v>0.01387781636841823</v>
       </c>
     </row>
     <row r="22">
@@ -7024,19 +7024,19 @@
         <v>193934</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>186627</v>
+        <v>187076</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>198070</v>
+        <v>198175</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9513284947777325</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9154826857739483</v>
+        <v>0.9176884608827316</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9716160664798357</v>
+        <v>0.9721308020392996</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>78</v>
@@ -7045,19 +7045,19 @@
         <v>91045</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82704</v>
+        <v>83752</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>96059</v>
+        <v>95427</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9192172305373854</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8350070081074906</v>
+        <v>0.8455899823219105</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9698466481379689</v>
+        <v>0.963460053324988</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>284</v>
@@ -7066,19 +7066,19 @@
         <v>284979</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>274842</v>
+        <v>275297</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>291648</v>
+        <v>292011</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.940828416849942</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9073636039130155</v>
+        <v>0.908863740689865</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9628445042741399</v>
+        <v>0.9640432371895208</v>
       </c>
     </row>
     <row r="23">
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5740</v>
+        <v>5860</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01179839707386614</v>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03952738983720081</v>
+        <v>0.04035410407844004</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7739</v>
+        <v>6785</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.008442735325471316</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04850817479937208</v>
+        <v>0.04252844347370387</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -7212,19 +7212,19 @@
         <v>3060</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9207</v>
+        <v>9163</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01004167932001525</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002642347970213556</v>
+        <v>0.002627805231098856</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03020920458823259</v>
+        <v>0.03006660822923794</v>
       </c>
     </row>
     <row r="25">
@@ -7241,19 +7241,19 @@
         <v>2491</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6710</v>
+        <v>6796</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01715654032310295</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005448021718466777</v>
+        <v>0.005498683685210223</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04620368244035799</v>
+        <v>0.04679468283511145</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -7262,19 +7262,19 @@
         <v>14884</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8222</v>
+        <v>7643</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24702</v>
+        <v>23645</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09328987961705132</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0515322742745653</v>
+        <v>0.04790068870080426</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1548234599908246</v>
+        <v>0.1481996664341569</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -7283,19 +7283,19 @@
         <v>17376</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10386</v>
+        <v>9476</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27350</v>
+        <v>28345</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05701299750672978</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03407920456270631</v>
+        <v>0.03109241570287848</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08973790110156811</v>
+        <v>0.093005339670969</v>
       </c>
     </row>
     <row r="26">
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5610</v>
+        <v>5547</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0118820638509767</v>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03863257322688829</v>
+        <v>0.03819784301670489</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6142</v>
+        <v>5368</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005661701345910324</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02015278715327663</v>
+        <v>0.01761435468264182</v>
       </c>
     </row>
     <row r="27">
@@ -7375,19 +7375,19 @@
         <v>139291</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>133505</v>
+        <v>133918</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>142726</v>
+        <v>142761</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9591629987520542</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9193230529607644</v>
+        <v>0.9221688158658541</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9828199153372178</v>
+        <v>0.9830602308968188</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>126</v>
@@ -7396,19 +7396,19 @@
         <v>143319</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>133144</v>
+        <v>134465</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>150611</v>
+        <v>151197</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8982673850574774</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8344974987527395</v>
+        <v>0.842778503035288</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9439750876536069</v>
+        <v>0.9476490236017471</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>278</v>
@@ -7417,19 +7417,19 @@
         <v>282609</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>271217</v>
+        <v>271260</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>290763</v>
+        <v>290857</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9272836218273447</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8899033812008517</v>
+        <v>0.8900451263053544</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9540383765792337</v>
+        <v>0.9543445891099355</v>
       </c>
     </row>
     <row r="28">
@@ -7530,19 +7530,19 @@
         <v>10587</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3821</v>
+        <v>3790</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19204</v>
+        <v>20039</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02562921797742386</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009250471558949497</v>
+        <v>0.009175670506864532</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0464902457248854</v>
+        <v>0.04851087642613763</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -7551,19 +7551,19 @@
         <v>10587</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3821</v>
+        <v>3790</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19204</v>
+        <v>20039</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02562921797742386</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009250471558949497</v>
+        <v>0.009175670506864532</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0464902457248854</v>
+        <v>0.04851087642613763</v>
       </c>
     </row>
     <row r="30">
@@ -7589,19 +7589,19 @@
         <v>21087</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12736</v>
+        <v>12538</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>33043</v>
+        <v>32383</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05104785688152151</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03083083418139817</v>
+        <v>0.0303519865620099</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07999172861643912</v>
+        <v>0.07839342193169392</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>17</v>
@@ -7610,19 +7610,19 @@
         <v>21087</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>12736</v>
+        <v>12538</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>33043</v>
+        <v>32383</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05104785688152151</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03083083418139817</v>
+        <v>0.0303519865620099</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07999172861643912</v>
+        <v>0.07839342193169392</v>
       </c>
     </row>
     <row r="31">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4605</v>
+        <v>6459</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.00273777381805145</v>
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01114860299133331</v>
+        <v>0.01563497471076105</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4605</v>
+        <v>6459</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00273777381805145</v>
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01114860299133331</v>
+        <v>0.01563497471076105</v>
       </c>
     </row>
     <row r="32">
@@ -7707,19 +7707,19 @@
         <v>380278</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>366712</v>
+        <v>366851</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>391746</v>
+        <v>392041</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9205851513230032</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8877449772503682</v>
+        <v>0.8880802554888276</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9483462956334091</v>
+        <v>0.9490615002753577</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>321</v>
@@ -7728,19 +7728,19 @@
         <v>380278</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>366712</v>
+        <v>366851</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>391746</v>
+        <v>392041</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9205851513230032</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8877449772503682</v>
+        <v>0.8880802554888276</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9483462956334091</v>
+        <v>0.9490615002753577</v>
       </c>
     </row>
     <row r="33">
@@ -7820,19 +7820,19 @@
         <v>5329</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1886</v>
+        <v>2400</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>11093</v>
+        <v>12106</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009011741481572967</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003189849336388622</v>
+        <v>0.004058889634707674</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01875935019127651</v>
+        <v>0.02047327814285446</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -7841,19 +7841,19 @@
         <v>13205</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7069</v>
+        <v>6912</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>24172</v>
+        <v>23587</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01709698971099794</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009152179692170628</v>
+        <v>0.008948795917343166</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03129652452862687</v>
+        <v>0.03053895926125531</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>16</v>
@@ -7862,19 +7862,19 @@
         <v>18534</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10979</v>
+        <v>11433</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>29989</v>
+        <v>31532</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01359104132141553</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.008051257253573507</v>
+        <v>0.008383996083032728</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02199075428421493</v>
+        <v>0.02312257320249037</v>
       </c>
     </row>
     <row r="35">
@@ -7891,19 +7891,19 @@
         <v>17199</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10855</v>
+        <v>10594</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>26672</v>
+        <v>26297</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0290853636997633</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01835663726456941</v>
+        <v>0.01791617241649703</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04510468710169677</v>
+        <v>0.04447122612625189</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>35</v>
@@ -7912,19 +7912,19 @@
         <v>44077</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>32545</v>
+        <v>31241</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>60577</v>
+        <v>61422</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05706806205320537</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04213717934385812</v>
+        <v>0.04044828291131518</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07843033545710525</v>
+        <v>0.07952513701340738</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>54</v>
@@ -7933,19 +7933,19 @@
         <v>61276</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>46536</v>
+        <v>46494</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>79251</v>
+        <v>78647</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04493412461002584</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03412500378623347</v>
+        <v>0.03409443592208622</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05811517201854016</v>
+        <v>0.05767192490989162</v>
       </c>
     </row>
     <row r="36">
@@ -7962,19 +7962,19 @@
         <v>3468</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8576</v>
+        <v>8659</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.005864689013602552</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.001514859012029556</v>
+        <v>0.00150034418766862</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01450352042141532</v>
+        <v>0.01464330031409564</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>7107</v>
+        <v>8011</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.003001348625675207</v>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.009201832248061429</v>
+        <v>0.01037203473446171</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6</v>
@@ -8004,19 +8004,19 @@
         <v>5786</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2033</v>
+        <v>2376</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>11991</v>
+        <v>12194</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.00424295844853084</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001490649335031135</v>
+        <v>0.001742411782978806</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.008792922754088496</v>
+        <v>0.008941862230684626</v>
       </c>
     </row>
     <row r="37">
@@ -8033,19 +8033,19 @@
         <v>565332</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>555207</v>
+        <v>554171</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>573782</v>
+        <v>573445</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9560382058050612</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9389146156192755</v>
+        <v>0.9371639127324761</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9703284566741086</v>
+        <v>0.9697585723451344</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>603</v>
@@ -8054,19 +8054,19 @@
         <v>712763</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>692913</v>
+        <v>692896</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>726917</v>
+        <v>728280</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9228335996101215</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8971320755418802</v>
+        <v>0.8971111048030044</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9411581275519146</v>
+        <v>0.9429231471214083</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1201</v>
@@ -8075,19 +8075,19 @@
         <v>1278096</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1257477</v>
+        <v>1257902</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1294590</v>
+        <v>1294958</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9372318756200277</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9221122900187931</v>
+        <v>0.9224237738677254</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9493272550243976</v>
+        <v>0.9495972799598412</v>
       </c>
     </row>
     <row r="38">
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3670</v>
+        <v>3551</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01904969999567533</v>
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06625976130452806</v>
+        <v>0.06411823776707593</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -8768,16 +8768,16 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3545</v>
+        <v>3972</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.006590028894519304</v>
+        <v>0.006590028894519305</v>
       </c>
       <c r="V10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02214472411049438</v>
+        <v>0.02480713411316182</v>
       </c>
     </row>
     <row r="11">
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3343</v>
+        <v>3197</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005707528869803368</v>
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03192522197005269</v>
+        <v>0.03053394305393502</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2961</v>
+        <v>3132</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01048838263090912</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05346515069385919</v>
+        <v>0.05655332192562538</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -8839,16 +8839,16 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4255</v>
+        <v>4245</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.007361411315894943</v>
+        <v>0.007361411315894944</v>
       </c>
       <c r="V11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02657879369207747</v>
+        <v>0.02651402351308438</v>
       </c>
     </row>
     <row r="12">
@@ -8865,16 +8865,16 @@
         <v>104117</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>101372</v>
+        <v>101518</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>104715</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9942924711301968</v>
+        <v>0.9942924711301965</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.968074778029947</v>
+        <v>0.9694660569460636</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -8886,19 +8886,19 @@
         <v>53749</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50647</v>
+        <v>50837</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54984</v>
+        <v>54988</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9704619173734155</v>
+        <v>0.9704619173734156</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9144518275575105</v>
+        <v>0.9178812150737758</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9927671100947809</v>
+        <v>0.9928269839733139</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>241</v>
@@ -8907,19 +8907,19 @@
         <v>157866</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>154530</v>
+        <v>154484</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>159510</v>
+        <v>159509</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9860485597895856</v>
+        <v>0.9860485597895857</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.965212003872565</v>
+        <v>0.96492052834732</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.996312977789964</v>
+        <v>0.9963092620075574</v>
       </c>
     </row>
     <row r="13">
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2950</v>
+        <v>3013</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007291245269198813</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02623065987487393</v>
+        <v>0.02679206263211431</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -9048,16 +9048,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2940</v>
+        <v>2738</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.004811354703868541</v>
+        <v>0.00481135470386854</v>
       </c>
       <c r="V14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0172499213887314</v>
+        <v>0.01606531078705244</v>
       </c>
     </row>
     <row r="15">
@@ -9074,19 +9074,19 @@
         <v>4180</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1730</v>
+        <v>1371</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8634</v>
+        <v>8613</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03716936461080413</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0153808286500641</v>
+        <v>0.01219196523602996</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07677085003886351</v>
+        <v>0.07657569142861193</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -9095,19 +9095,19 @@
         <v>2298</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>442</v>
+        <v>773</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6032</v>
+        <v>6068</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03964241792061858</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.007616306008680728</v>
+        <v>0.01334020333223399</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1040616501166222</v>
+        <v>0.1046775278878858</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>10</v>
@@ -9116,19 +9116,19 @@
         <v>6479</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3193</v>
+        <v>3102</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12187</v>
+        <v>11803</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03801049686519085</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01873412764637884</v>
+        <v>0.01819738600409689</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07150175371908825</v>
+        <v>0.0692521404859598</v>
       </c>
     </row>
     <row r="16">
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3829</v>
+        <v>3318</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01133381979955205</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06605664741563418</v>
+        <v>0.05723798638295996</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3444</v>
+        <v>3323</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003854846703456328</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0202036813897156</v>
+        <v>0.01949754314552117</v>
       </c>
     </row>
     <row r="17">
@@ -9208,19 +9208,19 @@
         <v>107470</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>102790</v>
+        <v>102622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>110183</v>
+        <v>110036</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.955539390119997</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9139280785318825</v>
+        <v>0.9124274808983029</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.979655487211854</v>
+        <v>0.978348318469683</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>101</v>
@@ -9229,19 +9229,19 @@
         <v>55015</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50842</v>
+        <v>51786</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56916</v>
+        <v>56917</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9490237622798294</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8770381506461948</v>
+        <v>0.8933224344603562</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9818110945777379</v>
+        <v>0.9818390471940236</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>257</v>
@@ -9250,19 +9250,19 @@
         <v>162485</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>156859</v>
+        <v>157106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>166108</v>
+        <v>166193</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9533233017274845</v>
+        <v>0.9533233017274843</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9203099908421377</v>
+        <v>0.9217593006731702</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9745798490308187</v>
+        <v>0.9750772704032222</v>
       </c>
     </row>
     <row r="18">
@@ -9354,19 +9354,19 @@
         <v>2911</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7354</v>
+        <v>8188</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01119452559456089</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003495523115916985</v>
+        <v>0.003460095221330255</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02828563670512811</v>
+        <v>0.03149149495666261</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -9375,19 +9375,19 @@
         <v>1713</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>422</v>
+        <v>557</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4212</v>
+        <v>4253</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01308615245207843</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003223086962479289</v>
+        <v>0.004254113226896679</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03218474487938296</v>
+        <v>0.03249557687991471</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -9396,19 +9396,19 @@
         <v>4623</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2018</v>
+        <v>1982</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9470</v>
+        <v>9659</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01182789722883157</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005162969539979507</v>
+        <v>0.005069541340433615</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02422634756351078</v>
+        <v>0.02471075421275776</v>
       </c>
     </row>
     <row r="20">
@@ -9425,19 +9425,19 @@
         <v>7029</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3415</v>
+        <v>3223</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12638</v>
+        <v>13199</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02703341016353133</v>
+        <v>0.02703341016353134</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01313324265272854</v>
+        <v>0.01239645678122225</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04860653445555255</v>
+        <v>0.0507655649886841</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -9446,19 +9446,19 @@
         <v>2870</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1002</v>
+        <v>1098</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6000</v>
+        <v>5835</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02193216961807583</v>
+        <v>0.02193216961807582</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007653676286456254</v>
+        <v>0.00839167989620241</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04584027096527737</v>
+        <v>0.04458266643050566</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -9467,19 +9467,19 @@
         <v>9899</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5518</v>
+        <v>5881</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16621</v>
+        <v>17323</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02532536660925278</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0141158327516723</v>
+        <v>0.01504450716113701</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04252123992532855</v>
+        <v>0.04431647938228425</v>
       </c>
     </row>
     <row r="21">
@@ -9496,19 +9496,19 @@
         <v>2222</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6588</v>
+        <v>6207</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.008545963217737622</v>
+        <v>0.00854596321773762</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00253019194994059</v>
+        <v>0.002514517048676101</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02533806286612072</v>
+        <v>0.02387066826507324</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -9517,19 +9517,19 @@
         <v>1922</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5104</v>
+        <v>5795</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.01468563206757854</v>
+        <v>0.01468563206757853</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004615940056718296</v>
+        <v>0.004627152714026611</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03899851728913432</v>
+        <v>0.04427958418269683</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -9538,19 +9538,19 @@
         <v>4144</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1481</v>
+        <v>1342</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8724</v>
+        <v>8763</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0106017027404931</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003789661251145388</v>
+        <v>0.00343325636214395</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02231973310243652</v>
+        <v>0.02241782485249829</v>
       </c>
     </row>
     <row r="22">
@@ -9567,19 +9567,19 @@
         <v>247845</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>241587</v>
+        <v>239965</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>252948</v>
+        <v>252848</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9532261010241702</v>
+        <v>0.9532261010241703</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9291598966427028</v>
+        <v>0.9229192939736666</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9728552253341294</v>
+        <v>0.9724701359254189</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>246</v>
@@ -9588,19 +9588,19 @@
         <v>124375</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120423</v>
+        <v>119534</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>127175</v>
+        <v>127441</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9502960458622671</v>
+        <v>0.950296045862267</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9201030714062051</v>
+        <v>0.9133070075036767</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9716907498498184</v>
+        <v>0.9737260344029233</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>601</v>
@@ -9609,19 +9609,19 @@
         <v>372219</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>364706</v>
+        <v>362649</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>378903</v>
+        <v>377932</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9522450334214225</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.933024466583277</v>
+        <v>0.9277617136968395</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9693434388062253</v>
+        <v>0.9668610609795456</v>
       </c>
     </row>
     <row r="23">
@@ -9716,16 +9716,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3519</v>
+        <v>3918</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.009437127713181051</v>
+        <v>0.009437127713181052</v>
       </c>
       <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03491096501182114</v>
+        <v>0.03886757346537786</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -9734,19 +9734,19 @@
         <v>6703</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3613</v>
+        <v>3694</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11037</v>
+        <v>11572</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03043304719212904</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01640468880254791</v>
+        <v>0.01677379895650217</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05011238085749725</v>
+        <v>0.05254066978355937</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -9755,19 +9755,19 @@
         <v>7654</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4376</v>
+        <v>4634</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12561</v>
+        <v>12897</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.02384113484232263</v>
+        <v>0.02384113484232262</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01363131735003008</v>
+        <v>0.0144356478118871</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03912565293316623</v>
+        <v>0.04017326154341486</v>
       </c>
     </row>
     <row r="25">
@@ -9787,16 +9787,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3238</v>
+        <v>3468</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.00888023557704417</v>
+        <v>0.008880235577044171</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03212566303423774</v>
+        <v>0.03440423021139567</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -9805,19 +9805,19 @@
         <v>17556</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12350</v>
+        <v>12330</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24812</v>
+        <v>23511</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07971342714593539</v>
+        <v>0.07971342714593538</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05607404779310915</v>
+        <v>0.05598398442790705</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1126558761656637</v>
+        <v>0.1067491014638682</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -9826,19 +9826,19 @@
         <v>18451</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12958</v>
+        <v>13334</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25106</v>
+        <v>26131</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05747452540374918</v>
+        <v>0.05747452540374916</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04036177455752746</v>
+        <v>0.04153409466371091</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07820312284130883</v>
+        <v>0.08139686647188725</v>
       </c>
     </row>
     <row r="26">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4643</v>
+        <v>4044</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005989534271734286</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02107916621856737</v>
+        <v>0.01836271002318185</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -9892,16 +9892,16 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3998</v>
+        <v>4677</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.004109050543692655</v>
+        <v>0.004109050543692654</v>
       </c>
       <c r="V26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01245285668642224</v>
+        <v>0.01456944180590496</v>
       </c>
     </row>
     <row r="27">
@@ -9918,19 +9918,19 @@
         <v>98947</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>96081</v>
+        <v>95890</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>100336</v>
+        <v>100309</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9816826367097746</v>
+        <v>0.9816826367097748</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.953252850678075</v>
+        <v>0.9513563682500431</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9954708734002357</v>
+        <v>0.9952028247636993</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>393</v>
@@ -9939,19 +9939,19 @@
         <v>194666</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>187058</v>
+        <v>187884</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>201597</v>
+        <v>201363</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8838639913902013</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8493213645474269</v>
+        <v>0.8530736529734916</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9153356467397634</v>
+        <v>0.9142730695061201</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>537</v>
@@ -9960,19 +9960,19 @@
         <v>293613</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>285775</v>
+        <v>285499</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>300101</v>
+        <v>300021</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9145752892102355</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8901631182991964</v>
+        <v>0.889302600846915</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9347870495882666</v>
+        <v>0.9345385855152107</v>
       </c>
     </row>
     <row r="28">
@@ -10077,19 +10077,19 @@
         <v>7882</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4268</v>
+        <v>3961</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13073</v>
+        <v>13721</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0227947209380882</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01234432010607869</v>
+        <v>0.01145392441520795</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03780579260209721</v>
+        <v>0.0396807760977398</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -10098,19 +10098,19 @@
         <v>7882</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4248</v>
+        <v>4064</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13124</v>
+        <v>13208</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02258077694486563</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01216868374208938</v>
+        <v>0.01164157819356596</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03759712310215932</v>
+        <v>0.03783853304236553</v>
       </c>
     </row>
     <row r="30">
@@ -10140,19 +10140,19 @@
         <v>25359</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18237</v>
+        <v>18074</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34269</v>
+        <v>34060</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.07333773489384407</v>
+        <v>0.07333773489384406</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05273997053521012</v>
+        <v>0.05226865218334049</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0991067334068339</v>
+        <v>0.09850175422367316</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>42</v>
@@ -10161,19 +10161,19 @@
         <v>25359</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18298</v>
+        <v>18345</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>34388</v>
+        <v>35366</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.07264941026378159</v>
+        <v>0.07264941026378158</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05242126874384532</v>
+        <v>0.05255542472445299</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09851732357145131</v>
+        <v>0.1013184563675033</v>
       </c>
     </row>
     <row r="31">
@@ -10203,19 +10203,19 @@
         <v>4872</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2143</v>
+        <v>2219</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9429</v>
+        <v>9229</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.01409051124670439</v>
+        <v>0.0140905112467044</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006198397608784715</v>
+        <v>0.006418580128427565</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02726710515513734</v>
+        <v>0.02669050179631777</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -10224,19 +10224,19 @@
         <v>4872</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2057</v>
+        <v>2123</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9319</v>
+        <v>9406</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01395826219435341</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.005892928564305577</v>
+        <v>0.006082306845767178</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02669646691064958</v>
+        <v>0.0269476166675261</v>
       </c>
     </row>
     <row r="32">
@@ -10266,19 +10266,19 @@
         <v>307670</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>298463</v>
+        <v>297223</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>316735</v>
+        <v>316306</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8897770329213633</v>
+        <v>0.8897770329213636</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8631505180331137</v>
+        <v>0.8595637961538325</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.915994450459601</v>
+        <v>0.9147540890741519</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>579</v>
@@ -10287,19 +10287,19 @@
         <v>310946</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>301725</v>
+        <v>300580</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>320167</v>
+        <v>319812</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8908115505969996</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8643940383598336</v>
+        <v>0.8611162182476411</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9172295653299547</v>
+        <v>0.9162125875500157</v>
       </c>
     </row>
     <row r="33">
@@ -10391,19 +10391,19 @@
         <v>4682</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1980</v>
+        <v>2211</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9597</v>
+        <v>9959</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.006672572306202995</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002822418186078278</v>
+        <v>0.003150749558144303</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01367694216425388</v>
+        <v>0.01419366710379272</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>30</v>
@@ -10412,19 +10412,19 @@
         <v>16297</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>10557</v>
+        <v>11249</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>23125</v>
+        <v>22828</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01841890625764488</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01193165396719698</v>
+        <v>0.01271310160136498</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02613528945247193</v>
+        <v>0.0258000848267913</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>38</v>
@@ -10433,19 +10433,19 @@
         <v>20979</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14484</v>
+        <v>15130</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>28911</v>
+        <v>29198</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01322379162018528</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009129401939454204</v>
+        <v>0.009536830749568634</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01822348816871946</v>
+        <v>0.01840451786263499</v>
       </c>
     </row>
     <row r="35">
@@ -10462,19 +10462,19 @@
         <v>12104</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7322</v>
+        <v>7067</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19036</v>
+        <v>19505</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01725100864561132</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01043582244195045</v>
+        <v>0.01007163135055346</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02713013851835513</v>
+        <v>0.02779788329501537</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>89</v>
@@ -10483,19 +10483,19 @@
         <v>49139</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>39103</v>
+        <v>39226</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>60545</v>
+        <v>60261</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.05553549395552403</v>
+        <v>0.05553549395552404</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04419325211975449</v>
+        <v>0.04433210399200856</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.068426476297508</v>
+        <v>0.06810478401904864</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>106</v>
@@ -10504,19 +10504,19 @@
         <v>61243</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>49206</v>
+        <v>49651</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>73622</v>
+        <v>74830</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.03860320760615454</v>
+        <v>0.03860320760615455</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0310154762479889</v>
+        <v>0.03129600904218766</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04640572115366062</v>
+        <v>0.04716689437197409</v>
       </c>
     </row>
     <row r="36">
@@ -10533,19 +10533,19 @@
         <v>2820</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6890</v>
+        <v>6978</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.004018547893699527</v>
+        <v>0.004018547893699526</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0009817764765278211</v>
+        <v>0.000986382542505611</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.009818940303067493</v>
+        <v>0.009944244965803817</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>15</v>
@@ -10554,19 +10554,19 @@
         <v>9351</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5597</v>
+        <v>5301</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>15246</v>
+        <v>15146</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01056868516272338</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.006325534083538124</v>
+        <v>0.00599083295083369</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01723074087556875</v>
+        <v>0.01711757067668626</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>19</v>
@@ -10575,19 +10575,19 @@
         <v>12171</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>7358</v>
+        <v>7510</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>17901</v>
+        <v>18720</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.007671720531516174</v>
+        <v>0.007671720531516176</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004637676127608705</v>
+        <v>0.004733645629469939</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01128325395214221</v>
+        <v>0.01179977703544891</v>
       </c>
     </row>
     <row r="37">
@@ -10604,19 +10604,19 @@
         <v>682057</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>673994</v>
+        <v>672893</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>688438</v>
+        <v>688509</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.9720578711544863</v>
+        <v>0.9720578711544864</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9605660426544201</v>
+        <v>0.9589981098493312</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9811523942443582</v>
+        <v>0.9812524067540203</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1540</v>
@@ -10625,19 +10625,19 @@
         <v>810033</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>796712</v>
+        <v>797027</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>821435</v>
+        <v>821512</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.9154769146241076</v>
+        <v>0.9154769146241077</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.900421407919207</v>
+        <v>0.9007774005224202</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9283628468001507</v>
+        <v>0.9284501123817879</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2518</v>
@@ -10646,19 +10646,19 @@
         <v>1492090</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1476782</v>
+        <v>1475266</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1506548</v>
+        <v>1506606</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.940501280242144</v>
+        <v>0.9405012802421441</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9308519608561799</v>
+        <v>0.9298965772222494</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9496146794041949</v>
+        <v>0.9496506843050305</v>
       </c>
     </row>
     <row r="38">
